--- a/src/main/java/com/testdata/E quarz login.xlsx
+++ b/src/main/java/com/testdata/E quarz login.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\git\Ecom_mayAutomation\src\main\java\com\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D578BF7-E1E8-4B6F-A1C9-2614C0271DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="5508" yWindow="1284" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,10 +87,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -97,14 +102,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,38 +408,41 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -439,7 +450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,32 +463,32 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -489,22 +500,22 @@
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
